--- a/tables/Agency_Programs.xlsx
+++ b/tables/Agency_Programs.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Cloud\AED Dropbox\AED_Cockburn_db\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\00065525\AED Dropbox\AED_Cockburn_db\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56CED325-FAE9-4A29-9B1F-D4B4EDAD8739}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{330F4C2A-3552-43B8-ACF0-33C9D5DF76BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{BC9683DB-6EDF-419C-90AE-B9006858D13B}"/>
+    <workbookView xWindow="0" yWindow="660" windowWidth="28800" windowHeight="15540" xr2:uid="{BC9683DB-6EDF-419C-90AE-B9006858D13B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="69">
   <si>
     <t>Group</t>
   </si>
@@ -235,6 +235,12 @@
   </si>
   <si>
     <t>WAMSI Westport Marine Science Program</t>
+  </si>
+  <si>
+    <t>Table</t>
+  </si>
+  <si>
+    <t>Data</t>
   </si>
 </sst>
 </file>
@@ -610,426 +616,501 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93540D03-D0CE-447B-B6B5-ABD8DB3C1678}">
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="37.08984375" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="37.08984375" style="1"/>
-    <col min="2" max="2" width="50" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="37.08984375" style="1"/>
-    <col min="4" max="4" width="43.36328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="37.08984375" style="1"/>
+    <col min="1" max="2" width="37.08984375" style="1"/>
+    <col min="3" max="3" width="50" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.08984375" style="1"/>
+    <col min="5" max="5" width="43.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="37.08984375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="E2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="F2" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="D3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="E3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="F3" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="D4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="E4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="F4" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="D5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="E5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="F5" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="D6" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="E6" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="D7" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="E7" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="D8" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="E8" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B9" s="1" t="s">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="D9" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="E9" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="F9" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B10" s="1" t="s">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="D10" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="E10" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="F10" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B11" s="1" t="s">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="D11" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="E11" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="F11" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B12" s="1" t="s">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="D12" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="E12" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="F12" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B13" s="1" t="s">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="D13" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="E13" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E13" s="4"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B14" s="1" t="s">
+      <c r="F13" s="4"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="D14" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="E14" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="F14" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B15" s="1" t="s">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="D15" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="E15" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="F15" s="4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B16" s="1" t="s">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="D16" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="E16" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="E16" s="4"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B17" s="1" t="s">
+      <c r="F16" s="4"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="D17" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="E17" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="E17" s="4" t="s">
+      <c r="F17" s="4" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B18" s="1" t="s">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="D18" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="E18" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="E18" s="4" t="s">
+      <c r="F18" s="4" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B19" s="1" t="s">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="D19" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="E19" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="E19" s="4" t="s">
+      <c r="F19" s="4" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B20" s="1" t="s">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="D20" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="E20" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="E20" s="4"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B21" s="1" t="s">
+      <c r="F20" s="4"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="D21" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="D21" s="4" t="s">
+      <c r="E21" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="E21" s="4"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B22" s="1" t="s">
+      <c r="F21" s="4"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="D22" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="E22" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="E22" s="4" t="s">
+      <c r="F22" s="4" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B23" s="1" t="s">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="D23" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="D23" s="4" t="s">
+      <c r="E23" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="E23" s="4" t="s">
+      <c r="F23" s="4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B24" s="1" t="s">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="D24" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="D24" s="4" t="s">
+      <c r="E24" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="E24" s="4" t="s">
+      <c r="F24" s="4" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B25" s="1" t="s">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="D25" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="D25" s="4" t="s">
+      <c r="E25" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="E25" s="4" t="s">
+      <c r="F25" s="4" t="s">
         <v>53</v>
       </c>
     </row>
